--- a/CRA.xlsx
+++ b/CRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ProjetSerre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7FAB88-FFB4-4531-8D11-06DF7DFE544D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D78A449-5451-453F-8918-A357166F5FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t>DATE</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>Confinement COVID19</t>
+  </si>
+  <si>
+    <t>domaine technique</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Developpement</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>BDD</t>
+  </si>
+  <si>
+    <t>Analyse</t>
   </si>
 </sst>
 </file>
@@ -349,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -520,21 +538,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,6 +606,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J35"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,618 +1006,840 @@
     <col min="4" max="4" width="67.42578125" customWidth="1"/>
     <col min="5" max="5" width="70.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="11">
-        <f>SUM(F3:F19,F21:F26,F28:F34)</f>
+      <c r="K2" s="8">
+        <f>SUM(F3:F17,F19:F24,F26:F32)</f>
         <v>110.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43839</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2">
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="G3" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>43843</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F4" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>43846</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="15" t="s">
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F5" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>43850</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13">
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>43853</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F7" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>43854</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F8" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>43857</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>43859</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>43860</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="13">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>43859</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>43861</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>43864</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>43860</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>43867</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>43871</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>43874</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="10">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>43875</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>43892</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>43893</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="10">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>43900</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>43901</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="10">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>43902</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>43903</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>43907</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="10">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>43909</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F27" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>43861</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>43910</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F28" s="10">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>43913</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="10">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>43914</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>43916</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="10">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>43917</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>43864</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>43867</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>43871</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>43874</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>43875</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>43892</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>43893</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>43900</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>43901</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>43902</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>43903</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
-        <v>43907</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>43909</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
-        <v>43910</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>43913</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>43914</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>43916</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
-        <v>43917</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="2">
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
